--- a/nmadb/480721.xlsx
+++ b/nmadb/480721.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7155"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,15 +21,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Treatments</t>
   </si>
   <si>
     <t>Study id</t>
-  </si>
-  <si>
-    <t>SE</t>
   </si>
   <si>
     <t>id</t>
@@ -197,33 +194,33 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>MD</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (t2 vs. t1)</t>
-    </r>
+    <t>effect=MD(t2 vs t1)</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>se</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -266,14 +263,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -306,149 +295,150 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="51">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -465,7 +455,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -539,7 +529,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -574,7 +563,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -750,15 +738,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" style="16" customWidth="1"/>
@@ -776,44 +764,44 @@
     <col min="15" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>54</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="3">
         <v>1999</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="16">
         <v>1</v>
@@ -837,7 +825,10 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
+      <c r="D3" s="16">
+        <v>1</v>
+      </c>
       <c r="E3" s="16">
         <v>1</v>
       </c>
@@ -857,10 +848,13 @@
         <v>1</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="D4" s="16">
+        <v>1</v>
+      </c>
       <c r="E4" s="16">
         <v>1</v>
       </c>
@@ -879,10 +873,13 @@
         <v>2</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="D5" s="16">
+        <v>1</v>
+      </c>
       <c r="E5" s="16">
         <v>1</v>
       </c>
@@ -901,15 +898,15 @@
         <v>3</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="3">
         <v>2006</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="16">
         <v>2</v>
@@ -933,15 +930,15 @@
         <v>4</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="3">
         <v>2006</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="16">
         <v>3</v>
@@ -963,15 +960,15 @@
         <v>5</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="3">
         <v>2003</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="16">
         <v>4</v>
@@ -993,10 +990,13 @@
         <v>6</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="D9" s="16">
+        <v>4</v>
+      </c>
       <c r="E9" s="16">
         <v>1</v>
       </c>
@@ -1015,15 +1015,15 @@
         <v>7</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="3">
         <v>2006</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="16">
         <v>5</v>
@@ -1046,10 +1046,13 @@
         <v>8</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="D11" s="16">
+        <v>5</v>
+      </c>
       <c r="E11" s="16">
         <v>1</v>
       </c>
@@ -1067,10 +1070,13 @@
         <v>9</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="D12" s="16">
+        <v>5</v>
+      </c>
       <c r="E12" s="16">
         <v>1</v>
       </c>
@@ -1088,15 +1094,15 @@
         <v>10</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="3">
         <v>2002</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="16">
         <v>6</v>
@@ -1118,15 +1124,15 @@
         <v>11</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="3">
         <v>2003</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="16">
         <v>7</v>
@@ -1148,15 +1154,15 @@
         <v>12</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="3">
         <v>2001</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="16">
         <v>8</v>
@@ -1178,10 +1184,13 @@
         <v>13</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="D16" s="16">
+        <v>8</v>
+      </c>
       <c r="E16" s="16">
         <v>1</v>
       </c>
@@ -1199,10 +1208,13 @@
         <v>14</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="14.25" customHeight="1">
+      <c r="D17" s="16">
+        <v>8</v>
+      </c>
       <c r="E17" s="16">
         <v>1</v>
       </c>
@@ -1216,7 +1228,10 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
+      <c r="D18" s="16">
+        <v>8</v>
+      </c>
       <c r="E18" s="16">
         <v>1</v>
       </c>
@@ -1229,13 +1244,16 @@
       <c r="H18" s="3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L18" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="3">
         <v>2005</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" s="16">
         <v>9</v>
@@ -1253,7 +1271,10 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
+      <c r="D20" s="16">
+        <v>9</v>
+      </c>
       <c r="E20" s="16">
         <v>1</v>
       </c>
@@ -1267,12 +1288,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="3">
         <v>2001</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="16">
         <v>10</v>
@@ -1290,7 +1311,10 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
+      <c r="D22" s="16">
+        <v>10</v>
+      </c>
       <c r="E22" s="16">
         <v>1</v>
       </c>
@@ -1304,7 +1328,10 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
+      <c r="D23" s="16">
+        <v>10</v>
+      </c>
       <c r="E23" s="16">
         <v>1</v>
       </c>
@@ -1318,12 +1345,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="3">
         <v>2001</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="16">
         <v>11</v>
@@ -1341,7 +1368,10 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
+      <c r="D25" s="16">
+        <v>11</v>
+      </c>
       <c r="E25" s="16">
         <v>1</v>
       </c>
@@ -1355,12 +1385,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="3">
         <v>2004</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" s="16">
         <v>12</v>
@@ -1378,12 +1408,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" s="3">
         <v>2004</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27" s="16">
         <v>13</v>
@@ -1401,7 +1431,10 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
+      <c r="D28" s="16">
+        <v>13</v>
+      </c>
       <c r="E28" s="16">
         <v>1</v>
       </c>
@@ -1415,7 +1448,10 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
+      <c r="D29" s="16">
+        <v>13</v>
+      </c>
       <c r="E29" s="16">
         <v>1</v>
       </c>
@@ -1429,7 +1465,10 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
+      <c r="D30" s="16">
+        <v>13</v>
+      </c>
       <c r="E30" s="16">
         <v>1</v>
       </c>
@@ -1443,12 +1482,12 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" s="3">
         <v>2005</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" s="16">
         <v>14</v>
@@ -1466,7 +1505,10 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
+      <c r="D32" s="16">
+        <v>14</v>
+      </c>
       <c r="E32" s="16">
         <v>1</v>
       </c>
@@ -1480,12 +1522,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15">
       <c r="A33" s="3">
         <v>2006</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D33" s="16">
         <v>15</v>
@@ -1503,12 +1545,12 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15">
       <c r="A34" s="3">
         <v>2006</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D34" s="16">
         <v>16</v>
@@ -1526,12 +1568,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" s="12" customFormat="1">
       <c r="A35" s="11">
         <v>2004</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="17">
@@ -1556,7 +1598,10 @@
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15">
+      <c r="D36" s="16">
+        <v>17</v>
+      </c>
       <c r="E36" s="16">
         <v>1</v>
       </c>
@@ -1576,7 +1621,10 @@
       <c r="N36" s="12"/>
       <c r="O36" s="12"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15">
+      <c r="D37" s="16">
+        <v>17</v>
+      </c>
       <c r="E37" s="16">
         <v>1</v>
       </c>
@@ -1590,12 +1638,12 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15">
       <c r="A38" s="3">
         <v>2000</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D38" s="16">
         <v>18</v>
@@ -1613,12 +1661,12 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15">
       <c r="A39" s="3">
         <v>2001</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D39" s="16">
         <v>19</v>
@@ -1636,12 +1684,12 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15">
       <c r="A40" s="3">
         <v>2002</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D40" s="16">
         <v>20</v>
@@ -1659,7 +1707,10 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15">
+      <c r="D41" s="16">
+        <v>20</v>
+      </c>
       <c r="E41" s="16">
         <v>1</v>
       </c>
@@ -1673,12 +1724,12 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15">
       <c r="A42" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D42" s="16">
         <v>21</v>
@@ -1700,7 +1751,10 @@
       <c r="M42" s="13"/>
       <c r="N42" s="13"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15">
+      <c r="D43" s="16">
+        <v>21</v>
+      </c>
       <c r="E43" s="16">
         <v>1</v>
       </c>
@@ -1718,12 +1772,12 @@
       <c r="M43" s="14"/>
       <c r="N43" s="13"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15">
       <c r="A44" s="3">
         <v>2002</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D44" s="16">
         <v>22</v>
@@ -1745,7 +1799,10 @@
       <c r="M44" s="18"/>
       <c r="N44" s="13"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15">
+      <c r="D45" s="16">
+        <v>22</v>
+      </c>
       <c r="E45" s="16">
         <v>1</v>
       </c>
@@ -1763,12 +1820,12 @@
       <c r="M45" s="18"/>
       <c r="N45" s="13"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15">
       <c r="A46" s="3">
         <v>2005</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D46" s="16">
         <v>23</v>
@@ -1790,7 +1847,10 @@
       <c r="M46" s="18"/>
       <c r="N46" s="13"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15">
+      <c r="D47" s="16">
+        <v>23</v>
+      </c>
       <c r="E47" s="16">
         <v>1</v>
       </c>
@@ -1808,12 +1868,12 @@
       <c r="M47" s="18"/>
       <c r="N47" s="13"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15">
       <c r="A48" s="3">
         <v>2007</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D48" s="16">
         <v>24</v>
@@ -1835,7 +1895,10 @@
       <c r="M48" s="18"/>
       <c r="N48" s="13"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14">
+      <c r="D49" s="16">
+        <v>24</v>
+      </c>
       <c r="E49" s="16">
         <v>1</v>
       </c>
@@ -1853,12 +1916,12 @@
       <c r="M49" s="18"/>
       <c r="N49" s="13"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14">
       <c r="A50" s="3">
         <v>2007</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D50" s="16">
         <v>25</v>
@@ -1880,7 +1943,10 @@
       <c r="M50" s="18"/>
       <c r="N50" s="13"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14">
+      <c r="D51" s="16">
+        <v>25</v>
+      </c>
       <c r="E51" s="16">
         <v>1</v>
       </c>
@@ -1898,12 +1964,12 @@
       <c r="M51" s="18"/>
       <c r="N51" s="13"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14">
       <c r="A52" s="3">
         <v>2007</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D52" s="16">
         <v>26</v>
@@ -1925,7 +1991,10 @@
       <c r="M52" s="18"/>
       <c r="N52" s="13"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14">
+      <c r="D53" s="16">
+        <v>26</v>
+      </c>
       <c r="E53" s="16">
         <v>1</v>
       </c>
@@ -1943,12 +2012,12 @@
       <c r="M53" s="18"/>
       <c r="N53" s="13"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14">
       <c r="A54" s="3">
         <v>2005</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D54" s="16">
         <v>27</v>
@@ -1970,12 +2039,12 @@
       <c r="M54" s="18"/>
       <c r="N54" s="13"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14">
       <c r="A55" s="3">
         <v>2003</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D55" s="16">
         <v>28</v>
@@ -1997,12 +2066,12 @@
       <c r="M55" s="18"/>
       <c r="N55" s="13"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14">
       <c r="A56" s="3">
         <v>2003</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D56" s="16">
         <v>29</v>
@@ -2024,94 +2093,94 @@
       <c r="M56" s="18"/>
       <c r="N56" s="13"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14">
       <c r="K57" s="13"/>
       <c r="L57" s="13"/>
       <c r="M57" s="13"/>
       <c r="N57" s="13"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14">
       <c r="K58" s="13"/>
       <c r="L58" s="13"/>
       <c r="M58" s="13"/>
       <c r="N58" s="13"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14">
       <c r="K59" s="13"/>
       <c r="L59" s="13"/>
       <c r="M59" s="13"/>
       <c r="N59" s="13"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14">
       <c r="K60" s="13"/>
       <c r="L60" s="13"/>
       <c r="M60" s="13"/>
       <c r="N60" s="13"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14">
       <c r="K61" s="13"/>
       <c r="L61" s="13"/>
       <c r="M61" s="13"/>
       <c r="N61" s="13"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14">
       <c r="K62" s="13"/>
       <c r="L62" s="13"/>
       <c r="M62" s="13"/>
       <c r="N62" s="13"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14">
       <c r="K63" s="13"/>
       <c r="L63" s="13"/>
       <c r="M63" s="13"/>
       <c r="N63" s="13"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:4">
       <c r="D70" s="20"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:4">
       <c r="D71" s="20"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:4">
       <c r="D72" s="20"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:4">
       <c r="D73" s="20"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:4">
       <c r="D74" s="20"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:4">
       <c r="D75" s="20"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:4">
       <c r="D76" s="20"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:4">
       <c r="D77" s="20"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:4">
       <c r="D78" s="20"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:4">
       <c r="D79" s="20"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:4">
       <c r="D80" s="20"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:4">
       <c r="D81" s="20"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:4">
       <c r="D82" s="20"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:4">
       <c r="D83" s="20"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:4">
       <c r="D84" s="20"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:4">
       <c r="D85" s="20"/>
     </row>
   </sheetData>
@@ -2126,12 +2195,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2143,12 +2212,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
